--- a/GDPR_map.xlsx
+++ b/GDPR_map.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10714"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10811"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/filippo/Documents/UIC/Tesi UIC/automated-software-analysis for privacy policy compliance/GDPR_navigator_2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB26CC5A-C7F4-8648-8412-0F02AED051F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD11CFEF-63D0-B84D-8982-795468F38D1F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15940" xr2:uid="{3DC3CFF2-E72D-FB46-B327-1564F4C8CC32}"/>
+    <workbookView xWindow="33820" yWindow="4380" windowWidth="28800" windowHeight="15940" xr2:uid="{3DC3CFF2-E72D-FB46-B327-1564F4C8CC32}"/>
   </bookViews>
   <sheets>
     <sheet name="Cartel1" sheetId="1" r:id="rId1"/>
@@ -3484,8 +3484,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{991BE2DE-DD63-854D-AE2C-9A4F575D9A76}">
   <dimension ref="A1:G794"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A759" workbookViewId="0">
-      <selection activeCell="F776" sqref="F776"/>
+    <sheetView tabSelected="1" zoomScale="112" workbookViewId="0">
+      <selection activeCell="B450" sqref="B450"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/GDPR_map.xlsx
+++ b/GDPR_map.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10811"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10916"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/filippo/Documents/UIC/Tesi UIC/automated-software-analysis for privacy policy compliance/GDPR_navigator_2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD11CFEF-63D0-B84D-8982-795468F38D1F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BC3FEF5-C541-294B-B99F-94FF92F980DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="33820" yWindow="4380" windowWidth="28800" windowHeight="15940" xr2:uid="{3DC3CFF2-E72D-FB46-B327-1564F4C8CC32}"/>
+    <workbookView xWindow="38400" yWindow="6000" windowWidth="28800" windowHeight="15940" xr2:uid="{3DC3CFF2-E72D-FB46-B327-1564F4C8CC32}"/>
   </bookViews>
   <sheets>
     <sheet name="Cartel1" sheetId="1" r:id="rId1"/>
@@ -3484,8 +3484,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{991BE2DE-DD63-854D-AE2C-9A4F575D9A76}">
   <dimension ref="A1:G794"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="112" workbookViewId="0">
-      <selection activeCell="B450" sqref="B450"/>
+    <sheetView tabSelected="1" topLeftCell="A521" zoomScale="111" workbookViewId="0">
+      <selection activeCell="F547" sqref="F547"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
